--- a/xcel_data/Kopie von Annahmen_Stromerzeugung.xlsx
+++ b/xcel_data/Kopie von Annahmen_Stromerzeugung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAMS\NEWAGE_REEEM\xcel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\Documents\NEWAGE_diss\xcel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="750" yWindow="315" windowWidth="28515" windowHeight="11895" activeTab="6"/>
+    <workbookView xWindow="750" yWindow="315" windowWidth="28515" windowHeight="11895" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Reg_Strom BW" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Reg_Strom BW'!$A$2:$AA$78</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1954,6 +1954,7 @@
   <cellStyles count="18">
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Link 2" xfId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="6"/>
@@ -1962,10 +1963,9 @@
     <cellStyle name="Normal 4" xfId="9"/>
     <cellStyle name="Normal 5" xfId="10"/>
     <cellStyle name="Normal 6" xfId="11"/>
+    <cellStyle name="Percent" xfId="17" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="12"/>
     <cellStyle name="Percent 3" xfId="13"/>
-    <cellStyle name="Prozent" xfId="17" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="Standard 3" xfId="14"/>
     <cellStyle name="Standard 4" xfId="15"/>
@@ -2208,9 +2208,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2323,7 +2323,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-621E-40BB-AB77-8A77B60BD167}"/>
             </c:ext>
@@ -2425,7 +2425,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-621E-40BB-AB77-8A77B60BD167}"/>
             </c:ext>
@@ -2440,11 +2440,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="102759936"/>
-        <c:axId val="53194688"/>
+        <c:axId val="176928880"/>
+        <c:axId val="176929440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102759936"/>
+        <c:axId val="176928880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,7 +2454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53194688"/>
+        <c:crossAx val="176929440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2462,7 +2462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53194688"/>
+        <c:axId val="176929440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,7 +2473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102759936"/>
+        <c:crossAx val="176928880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2495,9 +2495,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2610,7 +2610,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2DA2-43E5-A83A-8666DA480342}"/>
             </c:ext>
@@ -2712,7 +2712,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2DA2-43E5-A83A-8666DA480342}"/>
             </c:ext>
@@ -2727,11 +2727,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="106297856"/>
-        <c:axId val="105529920"/>
+        <c:axId val="225741440"/>
+        <c:axId val="225742000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106297856"/>
+        <c:axId val="225741440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105529920"/>
+        <c:crossAx val="225742000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2749,7 +2749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105529920"/>
+        <c:axId val="225742000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106297856"/>
+        <c:crossAx val="225741440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2782,9 +2782,9 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2897,7 +2897,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C65A-484B-A460-9FF17A09805D}"/>
             </c:ext>
@@ -2999,7 +2999,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C65A-484B-A460-9FF17A09805D}"/>
             </c:ext>
@@ -3014,11 +3014,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="106298368"/>
-        <c:axId val="105532224"/>
+        <c:axId val="225745360"/>
+        <c:axId val="225745920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106298368"/>
+        <c:axId val="225745360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3028,7 +3028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105532224"/>
+        <c:crossAx val="225745920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3036,7 +3036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105532224"/>
+        <c:axId val="225745920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106298368"/>
+        <c:crossAx val="225745360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3069,9 +3069,9 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3184,7 +3184,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0884-4831-93BC-A6172F3D924E}"/>
             </c:ext>
@@ -3286,7 +3286,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0884-4831-93BC-A6172F3D924E}"/>
             </c:ext>
@@ -3301,11 +3301,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="106298880"/>
-        <c:axId val="105534528"/>
+        <c:axId val="226059584"/>
+        <c:axId val="226060144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106298880"/>
+        <c:axId val="226059584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3315,7 +3315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105534528"/>
+        <c:crossAx val="226060144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3323,7 +3323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105534528"/>
+        <c:axId val="226060144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +3334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106298880"/>
+        <c:crossAx val="226059584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3356,9 +3356,9 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3459,7 +3459,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C923-42ED-8533-20B8F7A32EA0}"/>
             </c:ext>
@@ -3549,7 +3549,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C923-42ED-8533-20B8F7A32EA0}"/>
             </c:ext>
@@ -3639,7 +3639,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C923-42ED-8533-20B8F7A32EA0}"/>
             </c:ext>
@@ -3654,11 +3654,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108404224"/>
-        <c:axId val="105536832"/>
+        <c:axId val="226064064"/>
+        <c:axId val="226064624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108404224"/>
+        <c:axId val="226064064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,7 +3668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105536832"/>
+        <c:crossAx val="226064624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3676,7 +3676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105536832"/>
+        <c:axId val="226064624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3687,7 +3687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108404224"/>
+        <c:crossAx val="226064064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3709,9 +3709,9 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3880,7 +3880,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5066-49C9-9DB9-86A2F3219B54}"/>
             </c:ext>
@@ -3988,7 +3988,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5066-49C9-9DB9-86A2F3219B54}"/>
             </c:ext>
@@ -4096,7 +4096,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5066-49C9-9DB9-86A2F3219B54}"/>
             </c:ext>
@@ -4111,11 +4111,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108503040"/>
-        <c:axId val="108374272"/>
+        <c:axId val="225973200"/>
+        <c:axId val="225973760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108503040"/>
+        <c:axId val="225973200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4125,7 +4125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108374272"/>
+        <c:crossAx val="225973760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4133,7 +4133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108374272"/>
+        <c:axId val="225973760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4144,14 +4144,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108503040"/>
+        <c:crossAx val="225973200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4173,9 +4172,9 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4290,7 +4289,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B15F-41F5-867C-271D47BE3725}"/>
             </c:ext>
@@ -4394,7 +4393,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B15F-41F5-867C-271D47BE3725}"/>
             </c:ext>
@@ -4408,11 +4407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108503552"/>
-        <c:axId val="108376000"/>
+        <c:axId val="225977120"/>
+        <c:axId val="225977680"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="108503552"/>
+        <c:axId val="225977120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,7 +4421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108376000"/>
+        <c:crossAx val="225977680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4430,7 +4429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108376000"/>
+        <c:axId val="225977680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4441,7 +4440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108503552"/>
+        <c:crossAx val="225977120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4463,9 +4462,9 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4578,7 +4577,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-49F5-428E-ACB0-6BC39DEA8147}"/>
             </c:ext>
@@ -4680,7 +4679,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-49F5-428E-ACB0-6BC39DEA8147}"/>
             </c:ext>
@@ -4696,8 +4695,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108504064"/>
-        <c:axId val="108378304"/>
+        <c:axId val="226499936"/>
+        <c:axId val="226500496"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4798,7 +4797,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-49F5-428E-ACB0-6BC39DEA8147}"/>
             </c:ext>
@@ -4814,11 +4813,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108403712"/>
-        <c:axId val="108378880"/>
+        <c:axId val="226501616"/>
+        <c:axId val="226501056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108504064"/>
+        <c:axId val="226499936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4828,7 +4827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108378304"/>
+        <c:crossAx val="226500496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4836,7 +4835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108378304"/>
+        <c:axId val="226500496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4847,12 +4846,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108504064"/>
+        <c:crossAx val="226499936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108378880"/>
+        <c:axId val="226501056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4862,12 +4861,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108403712"/>
+        <c:crossAx val="226501616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="108403712"/>
+        <c:axId val="226501616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4877,7 +4876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108378880"/>
+        <c:crossAx val="226501056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4887,7 +4886,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4903,9 +4901,9 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5018,7 +5016,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FEC5-4E7C-A993-AE65D5775094}"/>
             </c:ext>
@@ -5120,7 +5118,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FEC5-4E7C-A993-AE65D5775094}"/>
             </c:ext>
@@ -5219,7 +5217,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FEC5-4E7C-A993-AE65D5775094}"/>
             </c:ext>
@@ -5234,11 +5232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108504576"/>
-        <c:axId val="108315776"/>
+        <c:axId val="226546848"/>
+        <c:axId val="226547408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108504576"/>
+        <c:axId val="226546848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,7 +5246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108315776"/>
+        <c:crossAx val="226547408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5256,7 +5254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108315776"/>
+        <c:axId val="226547408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5267,7 +5265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108504576"/>
+        <c:crossAx val="226546848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5285,9 +5283,9 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5400,7 +5398,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-832E-4820-8487-51613DB9A100}"/>
             </c:ext>
@@ -5415,11 +5413,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108505088"/>
-        <c:axId val="108318080"/>
+        <c:axId val="226550208"/>
+        <c:axId val="226550768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108505088"/>
+        <c:axId val="226550208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5429,7 +5427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108318080"/>
+        <c:crossAx val="226550768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5437,7 +5435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108318080"/>
+        <c:axId val="226550768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5448,7 +5446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108505088"/>
+        <c:crossAx val="226550208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5466,9 +5464,9 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5571,7 +5569,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-84BF-48B7-BEC3-5B1950459C11}"/>
             </c:ext>
@@ -5586,11 +5584,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108506624"/>
-        <c:axId val="108319808"/>
+        <c:axId val="226553008"/>
+        <c:axId val="227004496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108506624"/>
+        <c:axId val="226553008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5600,7 +5598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108319808"/>
+        <c:crossAx val="227004496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5608,7 +5606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108319808"/>
+        <c:axId val="227004496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5619,7 +5617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108506624"/>
+        <c:crossAx val="226553008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5641,9 +5639,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5756,7 +5754,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D92C-4E08-9109-C8505C4B97F9}"/>
             </c:ext>
@@ -5858,7 +5856,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D92C-4E08-9109-C8505C4B97F9}"/>
             </c:ext>
@@ -5873,11 +5871,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="102872576"/>
-        <c:axId val="53196992"/>
+        <c:axId val="176932800"/>
+        <c:axId val="176933360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102872576"/>
+        <c:axId val="176932800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5887,7 +5885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53196992"/>
+        <c:crossAx val="176933360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5895,7 +5893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53196992"/>
+        <c:axId val="176933360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5906,7 +5904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102872576"/>
+        <c:crossAx val="176932800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5928,9 +5926,9 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6034,7 +6032,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AB8F-43D6-A027-FAF1ED4B9A87}"/>
             </c:ext>
@@ -6049,11 +6047,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108401664"/>
-        <c:axId val="108321536"/>
+        <c:axId val="227006736"/>
+        <c:axId val="227007296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108401664"/>
+        <c:axId val="227006736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6063,7 +6061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108321536"/>
+        <c:crossAx val="227007296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6071,7 +6069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108321536"/>
+        <c:axId val="227007296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6082,7 +6080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108401664"/>
+        <c:crossAx val="227006736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6104,9 +6102,9 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6269,7 +6267,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1C55-4FC6-8867-9A32E4D0C122}"/>
             </c:ext>
@@ -6371,7 +6369,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1C55-4FC6-8867-9A32E4D0C122}"/>
             </c:ext>
@@ -6473,7 +6471,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1C55-4FC6-8867-9A32E4D0C122}"/>
             </c:ext>
@@ -6488,11 +6486,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108672512"/>
-        <c:axId val="106448000"/>
+        <c:axId val="227010656"/>
+        <c:axId val="227011216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108672512"/>
+        <c:axId val="227010656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6502,7 +6500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106448000"/>
+        <c:crossAx val="227011216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6510,7 +6508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106448000"/>
+        <c:axId val="227011216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6521,7 +6519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108672512"/>
+        <c:crossAx val="227010656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6549,9 +6547,9 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6660,7 +6658,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C134-4E68-AFF0-942475B58287}"/>
             </c:ext>
@@ -6758,7 +6756,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C134-4E68-AFF0-942475B58287}"/>
             </c:ext>
@@ -6772,11 +6770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108673024"/>
-        <c:axId val="106449728"/>
+        <c:axId val="227014576"/>
+        <c:axId val="227015136"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="108673024"/>
+        <c:axId val="227014576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6786,7 +6784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106449728"/>
+        <c:crossAx val="227015136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6794,7 +6792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106449728"/>
+        <c:axId val="227015136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6805,7 +6803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108673024"/>
+        <c:crossAx val="227014576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6827,9 +6825,9 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6932,7 +6930,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C437-4B55-8043-EF016725392E}"/>
             </c:ext>
@@ -6947,11 +6945,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108673536"/>
-        <c:axId val="106452032"/>
+        <c:axId val="227017936"/>
+        <c:axId val="227018496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108673536"/>
+        <c:axId val="227017936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6961,7 +6959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106452032"/>
+        <c:crossAx val="227018496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6969,7 +6967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106452032"/>
+        <c:axId val="227018496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6980,7 +6978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108673536"/>
+        <c:crossAx val="227017936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7002,9 +7000,9 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7120,7 +7118,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-53AF-4F51-9AE9-A90B4B745876}"/>
             </c:ext>
@@ -7225,7 +7223,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-53AF-4F51-9AE9-A90B4B745876}"/>
             </c:ext>
@@ -7330,7 +7328,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-53AF-4F51-9AE9-A90B4B745876}"/>
             </c:ext>
@@ -7345,11 +7343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="115447296"/>
-        <c:axId val="106453760"/>
+        <c:axId val="226919744"/>
+        <c:axId val="226920304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115447296"/>
+        <c:axId val="226919744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7359,7 +7357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106453760"/>
+        <c:crossAx val="226920304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7367,7 +7365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106453760"/>
+        <c:axId val="226920304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7378,7 +7376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115447296"/>
+        <c:crossAx val="226919744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7400,9 +7398,9 @@
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7515,7 +7513,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-60BB-4FDD-94C6-B8D8F546F1BC}"/>
             </c:ext>
@@ -7531,8 +7529,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115447808"/>
-        <c:axId val="110371968"/>
+        <c:axId val="226923664"/>
+        <c:axId val="226924224"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7633,7 +7631,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-60BB-4FDD-94C6-B8D8F546F1BC}"/>
             </c:ext>
@@ -7649,11 +7647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115448832"/>
-        <c:axId val="110372544"/>
+        <c:axId val="226925344"/>
+        <c:axId val="226924784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115447808"/>
+        <c:axId val="226923664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7663,7 +7661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110371968"/>
+        <c:crossAx val="226924224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7671,7 +7669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110371968"/>
+        <c:axId val="226924224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7682,12 +7680,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115447808"/>
+        <c:crossAx val="226923664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110372544"/>
+        <c:axId val="226924784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7697,12 +7695,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115448832"/>
+        <c:crossAx val="226925344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="115448832"/>
+        <c:axId val="226925344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7712,7 +7710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110372544"/>
+        <c:crossAx val="226924784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7733,9 +7731,9 @@
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7851,7 +7849,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC12-433F-9221-037DDBC13D5C}"/>
             </c:ext>
@@ -7956,7 +7954,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FC12-433F-9221-037DDBC13D5C}"/>
             </c:ext>
@@ -7971,11 +7969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="115449344"/>
-        <c:axId val="110374848"/>
+        <c:axId val="226928704"/>
+        <c:axId val="226929264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115449344"/>
+        <c:axId val="226928704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7985,7 +7983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110374848"/>
+        <c:crossAx val="226929264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7993,7 +7991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110374848"/>
+        <c:axId val="226929264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8004,7 +8002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115449344"/>
+        <c:crossAx val="226928704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8026,9 +8024,9 @@
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8147,7 +8145,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D399-4ACD-B698-2D6FA3D179AE}"/>
             </c:ext>
@@ -8162,11 +8160,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="116858880"/>
-        <c:axId val="110377152"/>
+        <c:axId val="226932064"/>
+        <c:axId val="226932624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116858880"/>
+        <c:axId val="226932064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8176,7 +8174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110377152"/>
+        <c:crossAx val="226932624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8184,7 +8182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110377152"/>
+        <c:axId val="226932624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8195,7 +8193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116858880"/>
+        <c:crossAx val="226932064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8217,9 +8215,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8332,7 +8330,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1577-4019-BCFD-E395A8DC4628}"/>
             </c:ext>
@@ -8434,7 +8432,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1577-4019-BCFD-E395A8DC4628}"/>
             </c:ext>
@@ -8449,11 +8447,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="102873088"/>
-        <c:axId val="103301696"/>
+        <c:axId val="176936720"/>
+        <c:axId val="176937280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102873088"/>
+        <c:axId val="176936720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8463,7 +8461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103301696"/>
+        <c:crossAx val="176937280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8471,7 +8469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103301696"/>
+        <c:axId val="176937280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8482,7 +8480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102873088"/>
+        <c:crossAx val="176936720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8504,9 +8502,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8619,7 +8617,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A3B1-45D0-9FDA-5CFAA94523A1}"/>
             </c:ext>
@@ -8721,7 +8719,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A3B1-45D0-9FDA-5CFAA94523A1}"/>
             </c:ext>
@@ -8736,11 +8734,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="102873600"/>
-        <c:axId val="103304000"/>
+        <c:axId val="225493216"/>
+        <c:axId val="225493776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102873600"/>
+        <c:axId val="225493216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8750,7 +8748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103304000"/>
+        <c:crossAx val="225493776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8758,7 +8756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103304000"/>
+        <c:axId val="225493776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8769,7 +8767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102873600"/>
+        <c:crossAx val="225493216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8791,9 +8789,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8906,7 +8904,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-728F-4DE8-9E94-3019BF13F5F4}"/>
             </c:ext>
@@ -9008,7 +9006,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-728F-4DE8-9E94-3019BF13F5F4}"/>
             </c:ext>
@@ -9023,11 +9021,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="102874112"/>
-        <c:axId val="103306304"/>
+        <c:axId val="225497136"/>
+        <c:axId val="225497696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102874112"/>
+        <c:axId val="225497136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9037,7 +9035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103306304"/>
+        <c:crossAx val="225497696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9045,7 +9043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103306304"/>
+        <c:axId val="225497696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9056,7 +9054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102874112"/>
+        <c:crossAx val="225497136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -9079,9 +9077,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9194,7 +9192,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F5B7-413F-BACA-B6A1C2662751}"/>
             </c:ext>
@@ -9296,7 +9294,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F5B7-413F-BACA-B6A1C2662751}"/>
             </c:ext>
@@ -9398,7 +9396,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F5B7-413F-BACA-B6A1C2662751}"/>
             </c:ext>
@@ -9500,7 +9498,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F5B7-413F-BACA-B6A1C2662751}"/>
             </c:ext>
@@ -9602,7 +9600,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F5B7-413F-BACA-B6A1C2662751}"/>
             </c:ext>
@@ -9617,11 +9615,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="102874624"/>
-        <c:axId val="103308608"/>
+        <c:axId val="225295488"/>
+        <c:axId val="225296048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102874624"/>
+        <c:axId val="225295488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9631,7 +9629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103308608"/>
+        <c:crossAx val="225296048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9639,7 +9637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103308608"/>
+        <c:axId val="225296048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9650,7 +9648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102874624"/>
+        <c:crossAx val="225295488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9672,9 +9670,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9787,7 +9785,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-078A-41AA-8905-06EB05C99DA8}"/>
             </c:ext>
@@ -9889,7 +9887,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-078A-41AA-8905-06EB05C99DA8}"/>
             </c:ext>
@@ -9991,7 +9989,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-078A-41AA-8905-06EB05C99DA8}"/>
             </c:ext>
@@ -10093,7 +10091,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-078A-41AA-8905-06EB05C99DA8}"/>
             </c:ext>
@@ -10195,7 +10193,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-078A-41AA-8905-06EB05C99DA8}"/>
             </c:ext>
@@ -10210,11 +10208,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="106295808"/>
-        <c:axId val="106219200"/>
+        <c:axId val="178825280"/>
+        <c:axId val="178825840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106295808"/>
+        <c:axId val="178825280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10224,7 +10222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106219200"/>
+        <c:crossAx val="178825840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10232,7 +10230,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106219200"/>
+        <c:axId val="178825840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10243,7 +10241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106295808"/>
+        <c:crossAx val="178825280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10265,9 +10263,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10380,7 +10378,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A520-4BCE-9139-54C3ED511DA5}"/>
             </c:ext>
@@ -10482,7 +10480,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A520-4BCE-9139-54C3ED511DA5}"/>
             </c:ext>
@@ -10584,7 +10582,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A520-4BCE-9139-54C3ED511DA5}"/>
             </c:ext>
@@ -10686,7 +10684,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A520-4BCE-9139-54C3ED511DA5}"/>
             </c:ext>
@@ -10788,7 +10786,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A520-4BCE-9139-54C3ED511DA5}"/>
             </c:ext>
@@ -10803,11 +10801,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="106296832"/>
-        <c:axId val="106221504"/>
+        <c:axId val="225574624"/>
+        <c:axId val="225575184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106296832"/>
+        <c:axId val="225574624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10817,7 +10815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106221504"/>
+        <c:crossAx val="225575184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10825,7 +10823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106221504"/>
+        <c:axId val="225575184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10836,7 +10834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106296832"/>
+        <c:crossAx val="225574624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10858,9 +10856,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10973,7 +10971,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E972-464D-9929-8774B3EBB9C8}"/>
             </c:ext>
@@ -11075,7 +11073,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E972-464D-9929-8774B3EBB9C8}"/>
             </c:ext>
@@ -11177,7 +11175,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E972-464D-9929-8774B3EBB9C8}"/>
             </c:ext>
@@ -11279,7 +11277,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E972-464D-9929-8774B3EBB9C8}"/>
             </c:ext>
@@ -11381,7 +11379,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E972-464D-9929-8774B3EBB9C8}"/>
             </c:ext>
@@ -11396,11 +11394,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="101898752"/>
-        <c:axId val="106223808"/>
+        <c:axId val="225580224"/>
+        <c:axId val="225580784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101898752"/>
+        <c:axId val="225580224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11410,7 +11408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106223808"/>
+        <c:crossAx val="225580784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11418,7 +11416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106223808"/>
+        <c:axId val="225580784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11429,7 +11427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101898752"/>
+        <c:crossAx val="225580224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13421,28 +13419,28 @@
             <v>UKI</v>
           </cell>
           <cell r="D7">
-            <v>12217.105535258839</v>
+            <v>13011.30553525884</v>
           </cell>
           <cell r="E7">
-            <v>16882.894464741159</v>
+            <v>18190.194464741158</v>
           </cell>
           <cell r="F7">
-            <v>324.77228596646074</v>
+            <v>342.96566344990447</v>
           </cell>
           <cell r="G7">
-            <v>1297.6584289496911</v>
+            <v>1380.4650514662474</v>
           </cell>
           <cell r="O7">
-            <v>12671.464471149793</v>
+            <v>13412.452762082605</v>
           </cell>
           <cell r="P7">
-            <v>16246.901528850203</v>
+            <v>17353.612792168315</v>
           </cell>
           <cell r="Q7">
-            <v>487.32596208112881</v>
+            <v>539.33436103126007</v>
           </cell>
           <cell r="R7">
-            <v>1947.1570379188713</v>
+            <v>2183.8717360816008</v>
           </cell>
         </row>
         <row r="8">
@@ -13508,28 +13506,28 @@
             <v>EUN</v>
           </cell>
           <cell r="D10">
-            <v>24543.965290922009</v>
+            <v>5578.1730148223542</v>
           </cell>
           <cell r="E10">
-            <v>32687.662760083713</v>
+            <v>7558.7760361833725</v>
           </cell>
           <cell r="F10">
-            <v>666.87386008058377</v>
+            <v>179.34847085732088</v>
           </cell>
           <cell r="G10">
-            <v>2458.16294609837</v>
+            <v>581.86575616139089</v>
           </cell>
           <cell r="O10">
-            <v>25429.755721008678</v>
+            <v>5683.8476024227311</v>
           </cell>
           <cell r="P10">
-            <v>30964.687692664866</v>
+            <v>6866.7355098947528</v>
           </cell>
           <cell r="Q10">
-            <v>1067.5367822138908</v>
+            <v>317.01364202203479</v>
           </cell>
           <cell r="R10">
-            <v>3943.1996837420852</v>
+            <v>1133.6434563623216</v>
           </cell>
         </row>
         <row r="11">
@@ -13537,28 +13535,28 @@
             <v>EUS</v>
           </cell>
           <cell r="D11">
-            <v>19565.137951035962</v>
+            <v>11103.520242299248</v>
           </cell>
           <cell r="E11">
-            <v>36844.46272639063</v>
+            <v>24398.641716807771</v>
           </cell>
           <cell r="F11">
-            <v>689.01189658450517</v>
+            <v>350.61609664188336</v>
           </cell>
           <cell r="G11">
-            <v>3741.3889498757121</v>
+            <v>2232.8935691943389</v>
           </cell>
           <cell r="O11">
-            <v>18987.980479151593</v>
+            <v>11542.181362447627</v>
           </cell>
           <cell r="P11">
-            <v>34800.756550206075</v>
+            <v>23312.306792407933</v>
           </cell>
           <cell r="Q11">
-            <v>1073.2213832921937</v>
+            <v>409.66755789246622</v>
           </cell>
           <cell r="R11">
-            <v>6349.1313747984786</v>
+            <v>2375.4081483443888</v>
           </cell>
         </row>
         <row r="12">
@@ -13595,22 +13593,22 @@
             <v>OEC</v>
           </cell>
           <cell r="D13">
-            <v>50569.371768782556</v>
+            <v>62691.780589714712</v>
           </cell>
           <cell r="E13">
-            <v>111860.37522935291</v>
+            <v>148241.65608772953</v>
           </cell>
           <cell r="F13">
-            <v>1402.4424409126832</v>
+            <v>2493.4421908507516</v>
           </cell>
           <cell r="G13">
-            <v>4509.3922957119557</v>
+            <v>8961.8707957738879</v>
           </cell>
           <cell r="O13">
-            <v>40345.185807234535</v>
+            <v>50374.873989134721</v>
           </cell>
           <cell r="P13">
-            <v>125892.90124913381</v>
+            <v>161029.03206046039</v>
           </cell>
         </row>
         <row r="14">
@@ -13721,28 +13719,28 @@
             <v>OPA</v>
           </cell>
           <cell r="D19">
-            <v>11219.956261959796</v>
+            <v>25272.385478220625</v>
           </cell>
           <cell r="E19">
-            <v>104235.6847380402</v>
+            <v>159028.82926959862</v>
           </cell>
           <cell r="F19">
-            <v>2475.6259512240504</v>
+            <v>3467.122564867479</v>
           </cell>
           <cell r="G19">
-            <v>8724.0040487759507</v>
+            <v>14460.992133557125</v>
           </cell>
           <cell r="O19">
-            <v>3002.3255833334852</v>
+            <v>19586.871991526121</v>
           </cell>
           <cell r="P19">
-            <v>9069.0474166665117</v>
+            <v>130730.2078575898</v>
           </cell>
           <cell r="Q19">
-            <v>201.47794392069386</v>
+            <v>533.84970613090161</v>
           </cell>
           <cell r="R19">
-            <v>739.64605607930605</v>
+            <v>2588.9572291445588</v>
           </cell>
         </row>
         <row r="20">
@@ -13750,16 +13748,16 @@
             <v>ROW</v>
           </cell>
           <cell r="O20">
-            <v>31708.952891361158</v>
+            <v>33798.601457146564</v>
           </cell>
           <cell r="P20">
-            <v>105368.94807608909</v>
+            <v>121267.01907720338</v>
           </cell>
           <cell r="Q20">
-            <v>1493.6223340208719</v>
+            <v>785.11214883283219</v>
           </cell>
           <cell r="R20">
-            <v>9103.8378345931924</v>
+            <v>4681.2196575282524</v>
           </cell>
         </row>
       </sheetData>
@@ -13781,7 +13779,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14080,7 +14078,7 @@
       <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="2" customWidth="1"/>
@@ -20326,7 +20324,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="128" t="s">
@@ -22100,7 +22098,7 @@
       <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="175" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="175" customWidth="1"/>
@@ -24374,7 +24372,7 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="175" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="175" customWidth="1"/>
@@ -25707,7 +25705,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
@@ -26467,7 +26465,7 @@
       <selection activeCell="B5" sqref="B5:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="11.42578125" style="163"/>
   </cols>
@@ -26631,11 +26629,11 @@
       </c>
       <c r="C10" s="168">
         <f>[9]RESULTS!D7/$E$27</f>
-        <v>12.21710553525884</v>
+        <v>13.01130553525884</v>
       </c>
       <c r="D10" s="168">
         <f>[9]RESULTS!E7/$E$27</f>
-        <v>16.88289446474116</v>
+        <v>18.190194464741158</v>
       </c>
       <c r="G10" s="164" t="str">
         <f>[9]RESULTS!B7</f>
@@ -26643,11 +26641,11 @@
       </c>
       <c r="H10" s="169">
         <f>[9]RESULTS!F7/$E$27</f>
-        <v>0.32477228596646074</v>
+        <v>0.34296566344990448</v>
       </c>
       <c r="I10" s="169">
         <f>[9]RESULTS!G7/$E$27</f>
-        <v>1.2976584289496911</v>
+        <v>1.3804650514662473</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -26709,11 +26707,11 @@
       </c>
       <c r="C13" s="168">
         <f>[9]RESULTS!D10/$E$27</f>
-        <v>24.54396529092201</v>
+        <v>5.5781730148223545</v>
       </c>
       <c r="D13" s="168">
         <f>[9]RESULTS!E10/$E$27</f>
-        <v>32.687662760083711</v>
+        <v>7.5587760361833727</v>
       </c>
       <c r="G13" s="164" t="str">
         <f>[9]RESULTS!B10</f>
@@ -26721,11 +26719,11 @@
       </c>
       <c r="H13" s="169">
         <f>[9]RESULTS!F10/$E$27</f>
-        <v>0.6668738600805838</v>
+        <v>0.17934847085732086</v>
       </c>
       <c r="I13" s="169">
         <f>[9]RESULTS!G10/$E$27</f>
-        <v>2.45816294609837</v>
+        <v>0.58186575616139091</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -26735,11 +26733,11 @@
       </c>
       <c r="C14" s="168">
         <f>[9]RESULTS!D11/$E$27</f>
-        <v>19.565137951035961</v>
+        <v>11.103520242299249</v>
       </c>
       <c r="D14" s="168">
         <f>[9]RESULTS!E11/$E$27</f>
-        <v>36.844462726390631</v>
+        <v>24.39864171680777</v>
       </c>
       <c r="G14" s="164" t="str">
         <f>[9]RESULTS!B11</f>
@@ -26747,11 +26745,11 @@
       </c>
       <c r="H14" s="169">
         <f>[9]RESULTS!F11/$E$27</f>
-        <v>0.68901189658450512</v>
+        <v>0.35061609664188337</v>
       </c>
       <c r="I14" s="169">
         <f>[9]RESULTS!G11/$E$27</f>
-        <v>3.741388949875712</v>
+        <v>2.232893569194339</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -26787,11 +26785,11 @@
       </c>
       <c r="C16" s="168">
         <f>[9]RESULTS!D13/$E$27</f>
-        <v>50.569371768782553</v>
+        <v>62.69178058971471</v>
       </c>
       <c r="D16" s="168">
         <f>[9]RESULTS!E13/$E$27</f>
-        <v>111.86037522935291</v>
+        <v>148.24165608772952</v>
       </c>
       <c r="G16" s="164" t="str">
         <f>[9]RESULTS!B13</f>
@@ -26799,11 +26797,11 @@
       </c>
       <c r="H16" s="169">
         <f>[9]RESULTS!F13/$E$27</f>
-        <v>1.4024424409126832</v>
+        <v>2.4934421908507516</v>
       </c>
       <c r="I16" s="169">
         <f>[9]RESULTS!G13/$E$27</f>
-        <v>4.5093922957119554</v>
+        <v>8.9618707957738888</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -26943,11 +26941,11 @@
       </c>
       <c r="C22" s="168">
         <f>[9]RESULTS!D19/$E$27</f>
-        <v>11.219956261959796</v>
+        <v>25.272385478220624</v>
       </c>
       <c r="D22" s="168">
         <f>[9]RESULTS!E19/$E$27</f>
-        <v>104.23568473804021</v>
+        <v>159.02882926959862</v>
       </c>
       <c r="G22" s="164" t="str">
         <f>[9]RESULTS!B19</f>
@@ -26955,11 +26953,11 @@
       </c>
       <c r="H22" s="169">
         <f>[9]RESULTS!F19/$E$27</f>
-        <v>2.4756259512240502</v>
+        <v>3.4671225648674788</v>
       </c>
       <c r="I22" s="169">
         <f>[9]RESULTS!G19/$E$27</f>
-        <v>8.7240040487759511</v>
+        <v>14.460992133557125</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -26997,11 +26995,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="163"/>
@@ -27204,11 +27202,11 @@
       </c>
       <c r="C10" s="168">
         <f>[9]RESULTS!O7/$E$27</f>
-        <v>12.671464471149793</v>
+        <v>13.412452762082605</v>
       </c>
       <c r="D10" s="168">
         <f>[9]RESULTS!P7/$E$27</f>
-        <v>16.246901528850202</v>
+        <v>17.353612792168313</v>
       </c>
       <c r="E10" s="163"/>
       <c r="F10" s="163"/>
@@ -27218,11 +27216,11 @@
       </c>
       <c r="H10" s="169">
         <f>[9]RESULTS!Q7/$E$27</f>
-        <v>0.48732596208112883</v>
+        <v>0.53933436103126009</v>
       </c>
       <c r="I10" s="169">
         <f>[9]RESULTS!R7/$E$27</f>
-        <v>1.9471570379188714</v>
+        <v>2.1838717360816009</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -27291,11 +27289,11 @@
       </c>
       <c r="C13" s="168">
         <f>[9]RESULTS!O10/$E$27</f>
-        <v>25.429755721008679</v>
+        <v>5.6838476024227313</v>
       </c>
       <c r="D13" s="168">
         <f>[9]RESULTS!P10/$E$27</f>
-        <v>30.964687692664867</v>
+        <v>6.8667355098947525</v>
       </c>
       <c r="E13" s="163"/>
       <c r="F13" s="163"/>
@@ -27305,11 +27303,11 @@
       </c>
       <c r="H13" s="169">
         <f>[9]RESULTS!Q10/$E$27</f>
-        <v>1.0675367822138908</v>
+        <v>0.3170136420220348</v>
       </c>
       <c r="I13" s="169">
         <f>[9]RESULTS!R10/$E$27</f>
-        <v>3.9431996837420851</v>
+        <v>1.1336434563623217</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -27320,11 +27318,11 @@
       </c>
       <c r="C14" s="168">
         <f>[9]RESULTS!O11/$E$27</f>
-        <v>18.987980479151592</v>
+        <v>11.542181362447627</v>
       </c>
       <c r="D14" s="168">
         <f>[9]RESULTS!P11/$E$27</f>
-        <v>34.800756550206074</v>
+        <v>23.312306792407934</v>
       </c>
       <c r="E14" s="163"/>
       <c r="F14" s="163"/>
@@ -27334,11 +27332,11 @@
       </c>
       <c r="H14" s="169">
         <f>[9]RESULTS!Q11/$E$27</f>
-        <v>1.0732213832921937</v>
+        <v>0.40966755789246623</v>
       </c>
       <c r="I14" s="169">
         <f>[9]RESULTS!R11/$E$27</f>
-        <v>6.3491313747984783</v>
+        <v>2.375408148344389</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -27378,11 +27376,11 @@
       </c>
       <c r="C16" s="168">
         <f>[9]RESULTS!O13/$E$27</f>
-        <v>40.345185807234536</v>
+        <v>50.37487398913472</v>
       </c>
       <c r="D16" s="168">
         <f>[9]RESULTS!P13/$E$27</f>
-        <v>125.89290124913381</v>
+        <v>161.02903206046039</v>
       </c>
       <c r="E16" s="163"/>
       <c r="F16" s="163"/>
@@ -27392,11 +27390,11 @@
       </c>
       <c r="H16" s="169">
         <f>emplmtno_2007!H16</f>
-        <v>1.4024424409126832</v>
+        <v>2.4934421908507516</v>
       </c>
       <c r="I16" s="169">
         <f>emplmtno_2007!I16</f>
-        <v>4.5093922957119554</v>
+        <v>8.9618707957738888</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -27552,11 +27550,11 @@
       </c>
       <c r="C22" s="168">
         <f>[9]RESULTS!O19/$E$27</f>
-        <v>3.002325583333485</v>
+        <v>19.58687199152612</v>
       </c>
       <c r="D22" s="168">
         <f>[9]RESULTS!P19/$E$27</f>
-        <v>9.0690474166665123</v>
+        <v>130.73020785758982</v>
       </c>
       <c r="E22" s="163"/>
       <c r="F22" s="163"/>
@@ -27566,11 +27564,11 @@
       </c>
       <c r="H22" s="169">
         <f>[9]RESULTS!Q19/$E$27</f>
-        <v>0.20147794392069385</v>
+        <v>0.53384970613090166</v>
       </c>
       <c r="I22" s="169">
         <f>[9]RESULTS!R19/$E$27</f>
-        <v>0.739646056079306</v>
+        <v>2.5889572291445586</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -27581,11 +27579,11 @@
       </c>
       <c r="C23" s="168">
         <f>[9]RESULTS!O20/$E$27</f>
-        <v>31.708952891361157</v>
+        <v>33.798601457146567</v>
       </c>
       <c r="D23" s="168">
         <f>[9]RESULTS!P20/$E$27</f>
-        <v>105.36894807608908</v>
+        <v>121.26701907720339</v>
       </c>
       <c r="E23" s="163"/>
       <c r="F23" s="163"/>
@@ -27595,11 +27593,11 @@
       </c>
       <c r="H23" s="169">
         <f>[9]RESULTS!Q20/$E$27</f>
-        <v>1.4936223340208719</v>
+        <v>0.7851121488328322</v>
       </c>
       <c r="I23" s="169">
         <f>[9]RESULTS!R20/$E$27</f>
-        <v>9.1038378345931932</v>
+        <v>4.6812196575282528</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
